--- a/Unity/Assets/Config/Excel/ShouJiItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ShouJiItemConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4ED9C4-2D3E-4A5E-8120-A6BD13B2FA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798F6B7E-C3FC-4574-AF66-07246CD11181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1241,7 +1241,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1404,6 +1404,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14868617816705831"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -6822,7 +6828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6901,6 +6907,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9042,9 +9051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D148" sqref="D148"/>
+      <selection pane="topRight" activeCell="E363" sqref="E363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9052,6 +9061,7 @@
     <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="3" max="10" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -9147,7 +9157,7 @@
         <v>110002</v>
       </c>
       <c r="E6" s="7">
-        <v>14010004</v>
+        <v>1501004</v>
       </c>
       <c r="F6" s="7">
         <v>3</v>
@@ -9174,7 +9184,7 @@
         <v>110003</v>
       </c>
       <c r="E7" s="7">
-        <v>14010008</v>
+        <v>1501008</v>
       </c>
       <c r="F7" s="7">
         <v>3</v>
@@ -9201,7 +9211,7 @@
         <v>110004</v>
       </c>
       <c r="E8" s="7">
-        <v>14010012</v>
+        <v>1501012</v>
       </c>
       <c r="F8" s="7">
         <v>3</v>
@@ -9228,7 +9238,7 @@
         <v>110005</v>
       </c>
       <c r="E9" s="7">
-        <v>14020004</v>
+        <v>1502004</v>
       </c>
       <c r="F9" s="7">
         <v>3</v>
@@ -9255,7 +9265,7 @@
         <v>110006</v>
       </c>
       <c r="E10" s="7">
-        <v>14020008</v>
+        <v>1502008</v>
       </c>
       <c r="F10" s="7">
         <v>3</v>
@@ -9282,7 +9292,7 @@
         <v>110007</v>
       </c>
       <c r="E11" s="7">
-        <v>14020012</v>
+        <v>1502012</v>
       </c>
       <c r="F11" s="7">
         <v>3</v>
@@ -9309,7 +9319,7 @@
         <v>110008</v>
       </c>
       <c r="E12" s="7">
-        <v>14030004</v>
+        <v>1503004</v>
       </c>
       <c r="F12" s="7">
         <v>3</v>
@@ -9336,7 +9346,7 @@
         <v>110009</v>
       </c>
       <c r="E13" s="7">
-        <v>14030008</v>
+        <v>1503008</v>
       </c>
       <c r="F13" s="7">
         <v>3</v>
@@ -9363,7 +9373,7 @@
         <v>110010</v>
       </c>
       <c r="E14" s="7">
-        <v>14030012</v>
+        <v>1503012</v>
       </c>
       <c r="F14" s="7">
         <v>3</v>
@@ -9390,7 +9400,7 @@
         <v>110011</v>
       </c>
       <c r="E15" s="7">
-        <v>14040004</v>
+        <v>1504004</v>
       </c>
       <c r="F15" s="7">
         <v>3</v>
@@ -9417,7 +9427,7 @@
         <v>110012</v>
       </c>
       <c r="E16" s="7">
-        <v>14040008</v>
+        <v>1504008</v>
       </c>
       <c r="F16" s="7">
         <v>3</v>
@@ -9444,7 +9454,7 @@
         <v>110013</v>
       </c>
       <c r="E17" s="7">
-        <v>14040012</v>
+        <v>1504012</v>
       </c>
       <c r="F17" s="7">
         <v>3</v>
@@ -9471,7 +9481,7 @@
         <v>110014</v>
       </c>
       <c r="E18" s="8">
-        <v>14050004</v>
+        <v>1505004</v>
       </c>
       <c r="F18" s="7">
         <v>3</v>
@@ -9498,7 +9508,7 @@
         <v>110015</v>
       </c>
       <c r="E19" s="8">
-        <v>14050008</v>
+        <v>1505008</v>
       </c>
       <c r="F19" s="7">
         <v>3</v>
@@ -9525,7 +9535,7 @@
         <v>110016</v>
       </c>
       <c r="E20" s="8">
-        <v>14050012</v>
+        <v>1505012</v>
       </c>
       <c r="F20" s="7">
         <v>3</v>
@@ -9552,7 +9562,7 @@
         <v>110017</v>
       </c>
       <c r="E21" s="7">
-        <v>14060004</v>
+        <v>1506004</v>
       </c>
       <c r="F21" s="7">
         <v>5</v>
@@ -9579,7 +9589,7 @@
         <v>110018</v>
       </c>
       <c r="E22" s="7">
-        <v>14070004</v>
+        <v>1507004</v>
       </c>
       <c r="F22" s="7">
         <v>5</v>
@@ -9606,7 +9616,7 @@
         <v>110019</v>
       </c>
       <c r="E23" s="7">
-        <v>14080003</v>
+        <v>1508003</v>
       </c>
       <c r="F23" s="7">
         <v>5</v>
@@ -9633,7 +9643,7 @@
         <v>110020</v>
       </c>
       <c r="E24" s="7">
-        <v>14090003</v>
+        <v>1509003</v>
       </c>
       <c r="F24" s="7">
         <v>5</v>
@@ -9660,7 +9670,7 @@
         <v>110021</v>
       </c>
       <c r="E25" s="7">
-        <v>14100004</v>
+        <v>1510104</v>
       </c>
       <c r="F25" s="7">
         <v>10</v>
@@ -9687,7 +9697,7 @@
         <v>110022</v>
       </c>
       <c r="E26" s="7">
-        <v>14100008</v>
+        <v>1510108</v>
       </c>
       <c r="F26" s="7">
         <v>10</v>
@@ -9714,7 +9724,7 @@
         <v>110023</v>
       </c>
       <c r="E27" s="8">
-        <v>14100104</v>
+        <v>1510122</v>
       </c>
       <c r="F27" s="7">
         <v>10</v>
@@ -9741,7 +9751,7 @@
         <v>110024</v>
       </c>
       <c r="E28" s="8">
-        <v>14100108</v>
+        <v>1510122</v>
       </c>
       <c r="F28" s="7">
         <v>10</v>
@@ -9768,7 +9778,7 @@
         <v>110025</v>
       </c>
       <c r="E29" s="8">
-        <v>14100204</v>
+        <v>1510204</v>
       </c>
       <c r="F29" s="7">
         <v>10</v>
@@ -9795,7 +9805,7 @@
         <v>110026</v>
       </c>
       <c r="E30" s="7">
-        <v>14110004</v>
+        <v>1511004</v>
       </c>
       <c r="F30" s="7">
         <v>5</v>
@@ -9822,7 +9832,7 @@
         <v>110027</v>
       </c>
       <c r="E31" s="7">
-        <v>14110008</v>
+        <v>1511008</v>
       </c>
       <c r="F31" s="7">
         <v>5</v>
@@ -9849,7 +9859,7 @@
         <v>110028</v>
       </c>
       <c r="E32" s="7">
-        <v>14110012</v>
+        <v>1511012</v>
       </c>
       <c r="F32" s="7">
         <v>5</v>
@@ -9876,7 +9886,7 @@
         <v>110029</v>
       </c>
       <c r="E33" s="9">
-        <v>14060005</v>
+        <v>1506005</v>
       </c>
       <c r="F33" s="7">
         <v>20</v>
@@ -9903,7 +9913,7 @@
         <v>110030</v>
       </c>
       <c r="E34" s="10">
-        <v>14100011</v>
+        <v>1510111</v>
       </c>
       <c r="F34" s="7">
         <v>20</v>
@@ -9930,7 +9940,7 @@
         <v>110031</v>
       </c>
       <c r="E35" s="10">
-        <v>14100012</v>
+        <v>1510112</v>
       </c>
       <c r="F35" s="7">
         <v>20</v>
@@ -9957,7 +9967,7 @@
         <v>110032</v>
       </c>
       <c r="E36" s="9">
-        <v>14100111</v>
+        <v>1510122</v>
       </c>
       <c r="F36" s="7">
         <v>20</v>
@@ -9984,7 +9994,7 @@
         <v>110033</v>
       </c>
       <c r="E37" s="9">
-        <v>14100112</v>
+        <v>1510122</v>
       </c>
       <c r="F37" s="7">
         <v>20</v>
@@ -10011,7 +10021,7 @@
         <v>110034</v>
       </c>
       <c r="E38" s="9">
-        <v>14100211</v>
+        <v>1510211</v>
       </c>
       <c r="F38" s="7">
         <v>20</v>
@@ -10038,7 +10048,7 @@
         <v>110035</v>
       </c>
       <c r="E39" s="9">
-        <v>14110021</v>
+        <v>1511021</v>
       </c>
       <c r="F39" s="7">
         <v>20</v>
@@ -10065,7 +10075,7 @@
         <v>110036</v>
       </c>
       <c r="E40" s="9">
-        <v>14110022</v>
+        <v>1511022</v>
       </c>
       <c r="F40" s="7">
         <v>20</v>
@@ -10092,7 +10102,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="9">
-        <v>14110023</v>
+        <v>1511023</v>
       </c>
       <c r="F41" s="7">
         <v>20</v>
@@ -10119,7 +10129,7 @@
         <v>120002</v>
       </c>
       <c r="E42" s="12">
-        <v>15201002</v>
+        <v>1520102</v>
       </c>
       <c r="F42" s="7">
         <v>3</v>
@@ -10146,7 +10156,7 @@
         <v>120003</v>
       </c>
       <c r="E43" s="12">
-        <v>15201004</v>
+        <v>1520104</v>
       </c>
       <c r="F43" s="7">
         <v>3</v>
@@ -10173,7 +10183,7 @@
         <v>120004</v>
       </c>
       <c r="E44" s="12">
-        <v>15201006</v>
+        <v>1520106</v>
       </c>
       <c r="F44" s="7">
         <v>3</v>
@@ -10200,7 +10210,7 @@
         <v>120005</v>
       </c>
       <c r="E45" s="12">
-        <v>15202002</v>
+        <v>1520202</v>
       </c>
       <c r="F45" s="7">
         <v>3</v>
@@ -10227,7 +10237,7 @@
         <v>120006</v>
       </c>
       <c r="E46" s="12">
-        <v>15202004</v>
+        <v>1520204</v>
       </c>
       <c r="F46" s="7">
         <v>3</v>
@@ -10254,7 +10264,7 @@
         <v>120007</v>
       </c>
       <c r="E47" s="12">
-        <v>15202006</v>
+        <v>1520206</v>
       </c>
       <c r="F47" s="7">
         <v>3</v>
@@ -10281,7 +10291,7 @@
         <v>120008</v>
       </c>
       <c r="E48" s="12">
-        <v>15203002</v>
+        <v>1520302</v>
       </c>
       <c r="F48" s="7">
         <v>3</v>
@@ -10308,7 +10318,7 @@
         <v>120009</v>
       </c>
       <c r="E49" s="12">
-        <v>15203004</v>
+        <v>1520304</v>
       </c>
       <c r="F49" s="7">
         <v>3</v>
@@ -10335,7 +10345,7 @@
         <v>120010</v>
       </c>
       <c r="E50" s="12">
-        <v>15203006</v>
+        <v>1520306</v>
       </c>
       <c r="F50" s="7">
         <v>3</v>
@@ -10362,7 +10372,7 @@
         <v>120011</v>
       </c>
       <c r="E51" s="12">
-        <v>15204002</v>
+        <v>1520402</v>
       </c>
       <c r="F51" s="7">
         <v>3</v>
@@ -10389,7 +10399,7 @@
         <v>120012</v>
       </c>
       <c r="E52" s="12">
-        <v>15204004</v>
+        <v>1520404</v>
       </c>
       <c r="F52" s="7">
         <v>3</v>
@@ -10416,7 +10426,7 @@
         <v>120013</v>
       </c>
       <c r="E53" s="12">
-        <v>15204006</v>
+        <v>1520406</v>
       </c>
       <c r="F53" s="7">
         <v>3</v>
@@ -10443,7 +10453,7 @@
         <v>120014</v>
       </c>
       <c r="E54" s="12">
-        <v>15205002</v>
+        <v>1520502</v>
       </c>
       <c r="F54" s="7">
         <v>3</v>
@@ -10470,7 +10480,7 @@
         <v>120015</v>
       </c>
       <c r="E55" s="12">
-        <v>15205004</v>
+        <v>1520504</v>
       </c>
       <c r="F55" s="7">
         <v>3</v>
@@ -10497,7 +10507,7 @@
         <v>120016</v>
       </c>
       <c r="E56" s="12">
-        <v>15205006</v>
+        <v>1520506</v>
       </c>
       <c r="F56" s="7">
         <v>3</v>
@@ -10524,7 +10534,7 @@
         <v>120017</v>
       </c>
       <c r="E57" s="12">
-        <v>15206002</v>
+        <v>1520602</v>
       </c>
       <c r="F57" s="7">
         <v>5</v>
@@ -10551,7 +10561,7 @@
         <v>120018</v>
       </c>
       <c r="E58" s="12">
-        <v>15207002</v>
+        <v>1520702</v>
       </c>
       <c r="F58" s="7">
         <v>5</v>
@@ -10578,7 +10588,7 @@
         <v>120019</v>
       </c>
       <c r="E59" s="12">
-        <v>15208002</v>
+        <v>1520802</v>
       </c>
       <c r="F59" s="7">
         <v>5</v>
@@ -10605,7 +10615,7 @@
         <v>120020</v>
       </c>
       <c r="E60" s="12">
-        <v>15209002</v>
+        <v>1520902</v>
       </c>
       <c r="F60" s="7">
         <v>5</v>
@@ -10632,7 +10642,7 @@
         <v>120021</v>
       </c>
       <c r="E61" s="12">
-        <v>15210002</v>
+        <v>1521012</v>
       </c>
       <c r="F61" s="7">
         <v>10</v>
@@ -10659,7 +10669,7 @@
         <v>120022</v>
       </c>
       <c r="E62" s="12">
-        <v>15210004</v>
+        <v>1521014</v>
       </c>
       <c r="F62" s="7">
         <v>10</v>
@@ -10686,7 +10696,7 @@
         <v>120023</v>
       </c>
       <c r="E63" s="13">
-        <v>15210102</v>
+        <v>1521014</v>
       </c>
       <c r="F63" s="7">
         <v>10</v>
@@ -10713,7 +10723,7 @@
         <v>120024</v>
       </c>
       <c r="E64" s="13">
-        <v>15210104</v>
+        <v>1521014</v>
       </c>
       <c r="F64" s="7">
         <v>10</v>
@@ -10740,7 +10750,7 @@
         <v>120025</v>
       </c>
       <c r="E65" s="13">
-        <v>15210202</v>
+        <v>1521022</v>
       </c>
       <c r="F65" s="7">
         <v>10</v>
@@ -10767,7 +10777,7 @@
         <v>120026</v>
       </c>
       <c r="E66" s="12">
-        <v>15211002</v>
+        <v>1521102</v>
       </c>
       <c r="F66" s="7">
         <v>5</v>
@@ -10794,7 +10804,7 @@
         <v>120027</v>
       </c>
       <c r="E67" s="12">
-        <v>15211004</v>
+        <v>1521104</v>
       </c>
       <c r="F67" s="7">
         <v>5</v>
@@ -10821,7 +10831,7 @@
         <v>120028</v>
       </c>
       <c r="E68" s="12">
-        <v>15211006</v>
+        <v>1521106</v>
       </c>
       <c r="F68" s="7">
         <v>5</v>
@@ -10848,7 +10858,7 @@
         <v>120029</v>
       </c>
       <c r="E69" s="18">
-        <v>15206003</v>
+        <v>1520603</v>
       </c>
       <c r="F69" s="7">
         <v>20</v>
@@ -10875,7 +10885,7 @@
         <v>120030</v>
       </c>
       <c r="E70" s="18">
-        <v>15210011</v>
+        <v>1521014</v>
       </c>
       <c r="F70" s="7">
         <v>20</v>
@@ -10902,7 +10912,7 @@
         <v>120031</v>
       </c>
       <c r="E71" s="18">
-        <v>15210012</v>
+        <v>1521014</v>
       </c>
       <c r="F71" s="7">
         <v>20</v>
@@ -10929,7 +10939,7 @@
         <v>120032</v>
       </c>
       <c r="E72" s="18">
-        <v>15210111</v>
+        <v>1521015</v>
       </c>
       <c r="F72" s="7">
         <v>20</v>
@@ -10956,7 +10966,7 @@
         <v>120033</v>
       </c>
       <c r="E73" s="18">
-        <v>15210112</v>
+        <v>1521016</v>
       </c>
       <c r="F73" s="7">
         <v>20</v>
@@ -10983,7 +10993,7 @@
         <v>120034</v>
       </c>
       <c r="E74" s="18">
-        <v>15210211</v>
+        <v>1521023</v>
       </c>
       <c r="F74" s="7">
         <v>20</v>
@@ -11010,7 +11020,7 @@
         <v>120035</v>
       </c>
       <c r="E75" s="18">
-        <v>15211011</v>
+        <v>1521111</v>
       </c>
       <c r="F75" s="7">
         <v>20</v>
@@ -11037,7 +11047,7 @@
         <v>120036</v>
       </c>
       <c r="E76" s="18">
-        <v>15211012</v>
+        <v>1521112</v>
       </c>
       <c r="F76" s="7">
         <v>20</v>
@@ -11064,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="18">
-        <v>15211013</v>
+        <v>1521113</v>
       </c>
       <c r="F77" s="7">
         <v>20</v>
@@ -11091,7 +11101,7 @@
         <v>130002</v>
       </c>
       <c r="E78" s="12">
-        <v>15301002</v>
+        <v>1530102</v>
       </c>
       <c r="F78" s="7">
         <v>3</v>
@@ -11118,7 +11128,7 @@
         <v>130003</v>
       </c>
       <c r="E79" s="12">
-        <v>15301004</v>
+        <v>1530104</v>
       </c>
       <c r="F79" s="7">
         <v>3</v>
@@ -11145,7 +11155,7 @@
         <v>130004</v>
       </c>
       <c r="E80" s="12">
-        <v>15301006</v>
+        <v>1530106</v>
       </c>
       <c r="F80" s="7">
         <v>3</v>
@@ -11172,7 +11182,7 @@
         <v>130005</v>
       </c>
       <c r="E81" s="12">
-        <v>15302002</v>
+        <v>1530202</v>
       </c>
       <c r="F81" s="7">
         <v>3</v>
@@ -11199,7 +11209,7 @@
         <v>130006</v>
       </c>
       <c r="E82" s="12">
-        <v>15302004</v>
+        <v>1530204</v>
       </c>
       <c r="F82" s="7">
         <v>3</v>
@@ -11226,7 +11236,7 @@
         <v>130007</v>
       </c>
       <c r="E83" s="12">
-        <v>15302006</v>
+        <v>1530206</v>
       </c>
       <c r="F83" s="7">
         <v>3</v>
@@ -11253,7 +11263,7 @@
         <v>130008</v>
       </c>
       <c r="E84" s="12">
-        <v>15303002</v>
+        <v>1530302</v>
       </c>
       <c r="F84" s="7">
         <v>3</v>
@@ -11280,7 +11290,7 @@
         <v>130009</v>
       </c>
       <c r="E85" s="12">
-        <v>15303004</v>
+        <v>1530304</v>
       </c>
       <c r="F85" s="7">
         <v>3</v>
@@ -11307,7 +11317,7 @@
         <v>130010</v>
       </c>
       <c r="E86" s="12">
-        <v>15303006</v>
+        <v>1530306</v>
       </c>
       <c r="F86" s="7">
         <v>3</v>
@@ -11334,7 +11344,7 @@
         <v>130011</v>
       </c>
       <c r="E87" s="12">
-        <v>15304002</v>
+        <v>1530402</v>
       </c>
       <c r="F87" s="7">
         <v>3</v>
@@ -11361,7 +11371,7 @@
         <v>130012</v>
       </c>
       <c r="E88" s="12">
-        <v>15304004</v>
+        <v>1530404</v>
       </c>
       <c r="F88" s="7">
         <v>3</v>
@@ -11388,7 +11398,7 @@
         <v>130013</v>
       </c>
       <c r="E89" s="12">
-        <v>15304006</v>
+        <v>1530406</v>
       </c>
       <c r="F89" s="7">
         <v>3</v>
@@ -11415,7 +11425,7 @@
         <v>130014</v>
       </c>
       <c r="E90" s="12">
-        <v>15305002</v>
+        <v>1530502</v>
       </c>
       <c r="F90" s="7">
         <v>3</v>
@@ -11442,7 +11452,7 @@
         <v>130015</v>
       </c>
       <c r="E91" s="12">
-        <v>15305004</v>
+        <v>1530504</v>
       </c>
       <c r="F91" s="7">
         <v>3</v>
@@ -11469,7 +11479,7 @@
         <v>130016</v>
       </c>
       <c r="E92" s="12">
-        <v>15305006</v>
+        <v>1530506</v>
       </c>
       <c r="F92" s="7">
         <v>3</v>
@@ -11496,7 +11506,7 @@
         <v>130017</v>
       </c>
       <c r="E93" s="12">
-        <v>15306002</v>
+        <v>1530602</v>
       </c>
       <c r="F93" s="7">
         <v>5</v>
@@ -11523,7 +11533,7 @@
         <v>130018</v>
       </c>
       <c r="E94" s="12">
-        <v>15307002</v>
+        <v>1530702</v>
       </c>
       <c r="F94" s="7">
         <v>5</v>
@@ -11550,7 +11560,7 @@
         <v>130019</v>
       </c>
       <c r="E95" s="12">
-        <v>15308002</v>
+        <v>1530802</v>
       </c>
       <c r="F95" s="7">
         <v>5</v>
@@ -11577,7 +11587,7 @@
         <v>130020</v>
       </c>
       <c r="E96" s="12">
-        <v>15309002</v>
+        <v>1530902</v>
       </c>
       <c r="F96" s="7">
         <v>5</v>
@@ -11604,7 +11614,7 @@
         <v>130021</v>
       </c>
       <c r="E97" s="12">
-        <v>15310002</v>
+        <v>1531002</v>
       </c>
       <c r="F97" s="7">
         <v>10</v>
@@ -11631,7 +11641,7 @@
         <v>130022</v>
       </c>
       <c r="E98" s="12">
-        <v>15310004</v>
+        <v>1531004</v>
       </c>
       <c r="F98" s="7">
         <v>10</v>
@@ -11658,7 +11668,7 @@
         <v>130023</v>
       </c>
       <c r="E99" s="13">
-        <v>15310102</v>
+        <v>1531014</v>
       </c>
       <c r="F99" s="7">
         <v>10</v>
@@ -11685,7 +11695,7 @@
         <v>130024</v>
       </c>
       <c r="E100" s="13">
-        <v>15310104</v>
+        <v>1531014</v>
       </c>
       <c r="F100" s="7">
         <v>10</v>
@@ -11712,7 +11722,7 @@
         <v>130025</v>
       </c>
       <c r="E101" s="13">
-        <v>15310202</v>
+        <v>1531022</v>
       </c>
       <c r="F101" s="7">
         <v>10</v>
@@ -11739,7 +11749,7 @@
         <v>130026</v>
       </c>
       <c r="E102" s="12">
-        <v>15311002</v>
+        <v>1531102</v>
       </c>
       <c r="F102" s="7">
         <v>5</v>
@@ -11766,7 +11776,7 @@
         <v>130027</v>
       </c>
       <c r="E103" s="12">
-        <v>15311004</v>
+        <v>1531104</v>
       </c>
       <c r="F103" s="7">
         <v>5</v>
@@ -11793,7 +11803,7 @@
         <v>130028</v>
       </c>
       <c r="E104" s="12">
-        <v>15311006</v>
+        <v>1531106</v>
       </c>
       <c r="F104" s="7">
         <v>5</v>
@@ -11820,7 +11830,7 @@
         <v>130029</v>
       </c>
       <c r="E105" s="18">
-        <v>15306003</v>
+        <v>1530603</v>
       </c>
       <c r="F105" s="7">
         <v>20</v>
@@ -11847,7 +11857,7 @@
         <v>130030</v>
       </c>
       <c r="E106" s="18">
-        <v>15310011</v>
+        <v>1531005</v>
       </c>
       <c r="F106" s="7">
         <v>20</v>
@@ -11874,7 +11884,7 @@
         <v>130031</v>
       </c>
       <c r="E107" s="18">
-        <v>15310012</v>
+        <v>1531014</v>
       </c>
       <c r="F107" s="7">
         <v>20</v>
@@ -11901,7 +11911,7 @@
         <v>130032</v>
       </c>
       <c r="E108" s="18">
-        <v>15310111</v>
+        <v>1531015</v>
       </c>
       <c r="F108" s="7">
         <v>20</v>
@@ -11928,7 +11938,7 @@
         <v>130033</v>
       </c>
       <c r="E109" s="18">
-        <v>15310112</v>
+        <v>1531016</v>
       </c>
       <c r="F109" s="7">
         <v>20</v>
@@ -11955,7 +11965,7 @@
         <v>130034</v>
       </c>
       <c r="E110" s="18">
-        <v>15310211</v>
+        <v>1531023</v>
       </c>
       <c r="F110" s="7">
         <v>20</v>
@@ -11982,7 +11992,7 @@
         <v>130035</v>
       </c>
       <c r="E111" s="18">
-        <v>15311011</v>
+        <v>1531107</v>
       </c>
       <c r="F111" s="7">
         <v>20</v>
@@ -12009,7 +12019,7 @@
         <v>130036</v>
       </c>
       <c r="E112" s="18">
-        <v>15311012</v>
+        <v>1531108</v>
       </c>
       <c r="F112" s="7">
         <v>20</v>
@@ -12036,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="E113" s="18">
-        <v>15311013</v>
+        <v>1531109</v>
       </c>
       <c r="F113" s="7">
         <v>20</v>
@@ -12063,7 +12073,7 @@
         <v>140002</v>
       </c>
       <c r="E114" s="12">
-        <v>15401002</v>
+        <v>1540102</v>
       </c>
       <c r="F114" s="7">
         <v>3</v>
@@ -12090,7 +12100,7 @@
         <v>140003</v>
       </c>
       <c r="E115" s="12">
-        <v>15401004</v>
+        <v>1540104</v>
       </c>
       <c r="F115" s="7">
         <v>3</v>
@@ -12117,7 +12127,7 @@
         <v>140004</v>
       </c>
       <c r="E116" s="12">
-        <v>15401006</v>
+        <v>1540106</v>
       </c>
       <c r="F116" s="7">
         <v>3</v>
@@ -12144,7 +12154,7 @@
         <v>140005</v>
       </c>
       <c r="E117" s="12">
-        <v>15402002</v>
+        <v>1540202</v>
       </c>
       <c r="F117" s="7">
         <v>3</v>
@@ -12171,7 +12181,7 @@
         <v>140006</v>
       </c>
       <c r="E118" s="12">
-        <v>15402004</v>
+        <v>1540204</v>
       </c>
       <c r="F118" s="7">
         <v>3</v>
@@ -12198,7 +12208,7 @@
         <v>140007</v>
       </c>
       <c r="E119" s="12">
-        <v>15402006</v>
+        <v>1540206</v>
       </c>
       <c r="F119" s="7">
         <v>3</v>
@@ -12225,7 +12235,7 @@
         <v>140008</v>
       </c>
       <c r="E120" s="12">
-        <v>15403002</v>
+        <v>1540302</v>
       </c>
       <c r="F120" s="7">
         <v>3</v>
@@ -12252,7 +12262,7 @@
         <v>140009</v>
       </c>
       <c r="E121" s="12">
-        <v>15403004</v>
+        <v>1540304</v>
       </c>
       <c r="F121" s="7">
         <v>3</v>
@@ -12279,7 +12289,7 @@
         <v>140010</v>
       </c>
       <c r="E122" s="12">
-        <v>15403006</v>
+        <v>1540306</v>
       </c>
       <c r="F122" s="7">
         <v>3</v>
@@ -12306,7 +12316,7 @@
         <v>140011</v>
       </c>
       <c r="E123" s="12">
-        <v>15404002</v>
+        <v>1540402</v>
       </c>
       <c r="F123" s="7">
         <v>3</v>
@@ -12333,7 +12343,7 @@
         <v>140012</v>
       </c>
       <c r="E124" s="12">
-        <v>15404004</v>
+        <v>1540404</v>
       </c>
       <c r="F124" s="7">
         <v>3</v>
@@ -12360,7 +12370,7 @@
         <v>140013</v>
       </c>
       <c r="E125" s="12">
-        <v>15404006</v>
+        <v>1540406</v>
       </c>
       <c r="F125" s="7">
         <v>3</v>
@@ -12387,7 +12397,7 @@
         <v>140014</v>
       </c>
       <c r="E126" s="12">
-        <v>15405002</v>
+        <v>1540502</v>
       </c>
       <c r="F126" s="7">
         <v>3</v>
@@ -12414,7 +12424,7 @@
         <v>140015</v>
       </c>
       <c r="E127" s="12">
-        <v>15405004</v>
+        <v>1540504</v>
       </c>
       <c r="F127" s="7">
         <v>3</v>
@@ -12441,7 +12451,7 @@
         <v>140016</v>
       </c>
       <c r="E128" s="12">
-        <v>15405006</v>
+        <v>1540506</v>
       </c>
       <c r="F128" s="7">
         <v>3</v>
@@ -12468,7 +12478,7 @@
         <v>140017</v>
       </c>
       <c r="E129" s="12">
-        <v>15406002</v>
+        <v>1540602</v>
       </c>
       <c r="F129" s="7">
         <v>5</v>
@@ -12495,7 +12505,7 @@
         <v>140018</v>
       </c>
       <c r="E130" s="12">
-        <v>15407002</v>
+        <v>1540702</v>
       </c>
       <c r="F130" s="7">
         <v>5</v>
@@ -12522,7 +12532,7 @@
         <v>140019</v>
       </c>
       <c r="E131" s="12">
-        <v>15408002</v>
+        <v>1540802</v>
       </c>
       <c r="F131" s="7">
         <v>5</v>
@@ -12549,7 +12559,7 @@
         <v>140020</v>
       </c>
       <c r="E132" s="12">
-        <v>15409002</v>
+        <v>1540902</v>
       </c>
       <c r="F132" s="7">
         <v>5</v>
@@ -12576,7 +12586,7 @@
         <v>140021</v>
       </c>
       <c r="E133" s="12">
-        <v>15410002</v>
+        <v>1541002</v>
       </c>
       <c r="F133" s="7">
         <v>10</v>
@@ -12603,7 +12613,7 @@
         <v>140022</v>
       </c>
       <c r="E134" s="12">
-        <v>15410004</v>
+        <v>1541014</v>
       </c>
       <c r="F134" s="7">
         <v>10</v>
@@ -12630,7 +12640,7 @@
         <v>140023</v>
       </c>
       <c r="E135" s="13">
-        <v>15410102</v>
+        <v>1541016</v>
       </c>
       <c r="F135" s="7">
         <v>10</v>
@@ -12657,7 +12667,7 @@
         <v>140024</v>
       </c>
       <c r="E136" s="13">
-        <v>15410104</v>
+        <v>1541016</v>
       </c>
       <c r="F136" s="7">
         <v>10</v>
@@ -12684,7 +12694,7 @@
         <v>140025</v>
       </c>
       <c r="E137" s="13">
-        <v>15410202</v>
+        <v>1541022</v>
       </c>
       <c r="F137" s="7">
         <v>10</v>
@@ -12711,7 +12721,7 @@
         <v>140026</v>
       </c>
       <c r="E138" s="12">
-        <v>15411002</v>
+        <v>1541102</v>
       </c>
       <c r="F138" s="7">
         <v>5</v>
@@ -12738,7 +12748,7 @@
         <v>140027</v>
       </c>
       <c r="E139" s="12">
-        <v>15411004</v>
+        <v>1541104</v>
       </c>
       <c r="F139" s="7">
         <v>5</v>
@@ -12765,7 +12775,7 @@
         <v>140028</v>
       </c>
       <c r="E140" s="12">
-        <v>15411006</v>
+        <v>1541106</v>
       </c>
       <c r="F140" s="7">
         <v>5</v>
@@ -12792,7 +12802,7 @@
         <v>140029</v>
       </c>
       <c r="E141" s="18">
-        <v>15406003</v>
+        <v>1540603</v>
       </c>
       <c r="F141" s="7">
         <v>20</v>
@@ -12819,7 +12829,7 @@
         <v>140030</v>
       </c>
       <c r="E142" s="18">
-        <v>15410011</v>
+        <v>1541015</v>
       </c>
       <c r="F142" s="7">
         <v>20</v>
@@ -12846,7 +12856,7 @@
         <v>140031</v>
       </c>
       <c r="E143" s="18">
-        <v>15410012</v>
+        <v>1541016</v>
       </c>
       <c r="F143" s="7">
         <v>20</v>
@@ -12873,7 +12883,7 @@
         <v>140032</v>
       </c>
       <c r="E144" s="18">
-        <v>15410111</v>
+        <v>1541016</v>
       </c>
       <c r="F144" s="7">
         <v>20</v>
@@ -12900,7 +12910,7 @@
         <v>140033</v>
       </c>
       <c r="E145" s="18">
-        <v>15410112</v>
+        <v>1541016</v>
       </c>
       <c r="F145" s="7">
         <v>20</v>
@@ -12927,7 +12937,7 @@
         <v>140034</v>
       </c>
       <c r="E146" s="18">
-        <v>15410211</v>
+        <v>1541023</v>
       </c>
       <c r="F146" s="7">
         <v>20</v>
@@ -12954,7 +12964,7 @@
         <v>140035</v>
       </c>
       <c r="E147" s="18">
-        <v>15411011</v>
+        <v>1541107</v>
       </c>
       <c r="F147" s="7">
         <v>20</v>
@@ -12981,7 +12991,7 @@
         <v>140036</v>
       </c>
       <c r="E148" s="18">
-        <v>15411012</v>
+        <v>1541108</v>
       </c>
       <c r="F148" s="7">
         <v>20</v>
@@ -13008,7 +13018,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="18">
-        <v>15411013</v>
+        <v>1541109</v>
       </c>
       <c r="F149" s="7">
         <v>20</v>
@@ -13035,7 +13045,7 @@
         <v>150002</v>
       </c>
       <c r="E150" s="12">
-        <v>15501002</v>
+        <v>1550102</v>
       </c>
       <c r="F150" s="7">
         <v>3</v>
@@ -13062,7 +13072,7 @@
         <v>150003</v>
       </c>
       <c r="E151" s="12">
-        <v>15501004</v>
+        <v>1550104</v>
       </c>
       <c r="F151" s="7">
         <v>3</v>
@@ -13089,7 +13099,7 @@
         <v>150004</v>
       </c>
       <c r="E152" s="12">
-        <v>15501006</v>
+        <v>1550106</v>
       </c>
       <c r="F152" s="7">
         <v>3</v>
@@ -13116,7 +13126,7 @@
         <v>150005</v>
       </c>
       <c r="E153" s="12">
-        <v>15502002</v>
+        <v>1550202</v>
       </c>
       <c r="F153" s="7">
         <v>3</v>
@@ -13143,7 +13153,7 @@
         <v>150006</v>
       </c>
       <c r="E154" s="12">
-        <v>15502004</v>
+        <v>1550204</v>
       </c>
       <c r="F154" s="7">
         <v>3</v>
@@ -13170,7 +13180,7 @@
         <v>150007</v>
       </c>
       <c r="E155" s="12">
-        <v>15502006</v>
+        <v>1550206</v>
       </c>
       <c r="F155" s="7">
         <v>3</v>
@@ -13197,7 +13207,7 @@
         <v>150008</v>
       </c>
       <c r="E156" s="12">
-        <v>15503002</v>
+        <v>1550302</v>
       </c>
       <c r="F156" s="7">
         <v>3</v>
@@ -13224,7 +13234,7 @@
         <v>150009</v>
       </c>
       <c r="E157" s="12">
-        <v>15503004</v>
+        <v>1550304</v>
       </c>
       <c r="F157" s="7">
         <v>3</v>
@@ -13251,7 +13261,7 @@
         <v>150010</v>
       </c>
       <c r="E158" s="12">
-        <v>15503006</v>
+        <v>1550306</v>
       </c>
       <c r="F158" s="7">
         <v>3</v>
@@ -13278,7 +13288,7 @@
         <v>150011</v>
       </c>
       <c r="E159" s="12">
-        <v>15504002</v>
+        <v>1550402</v>
       </c>
       <c r="F159" s="7">
         <v>3</v>
@@ -13305,7 +13315,7 @@
         <v>150012</v>
       </c>
       <c r="E160" s="12">
-        <v>15504004</v>
+        <v>1550404</v>
       </c>
       <c r="F160" s="7">
         <v>3</v>
@@ -13332,7 +13342,7 @@
         <v>150013</v>
       </c>
       <c r="E161" s="12">
-        <v>15504006</v>
+        <v>1550406</v>
       </c>
       <c r="F161" s="7">
         <v>3</v>
@@ -13359,7 +13369,7 @@
         <v>150014</v>
       </c>
       <c r="E162" s="12">
-        <v>15505002</v>
+        <v>1550502</v>
       </c>
       <c r="F162" s="7">
         <v>3</v>
@@ -13386,7 +13396,7 @@
         <v>150015</v>
       </c>
       <c r="E163" s="12">
-        <v>15505004</v>
+        <v>1550504</v>
       </c>
       <c r="F163" s="7">
         <v>3</v>
@@ -13413,7 +13423,7 @@
         <v>150016</v>
       </c>
       <c r="E164" s="12">
-        <v>15505006</v>
+        <v>1550506</v>
       </c>
       <c r="F164" s="7">
         <v>3</v>
@@ -13440,7 +13450,7 @@
         <v>150017</v>
       </c>
       <c r="E165" s="12">
-        <v>15506002</v>
+        <v>1550602</v>
       </c>
       <c r="F165" s="7">
         <v>5</v>
@@ -13467,7 +13477,7 @@
         <v>150018</v>
       </c>
       <c r="E166" s="12">
-        <v>15507002</v>
+        <v>1550702</v>
       </c>
       <c r="F166" s="7">
         <v>5</v>
@@ -13494,7 +13504,7 @@
         <v>150019</v>
       </c>
       <c r="E167" s="12">
-        <v>15508002</v>
+        <v>1550802</v>
       </c>
       <c r="F167" s="7">
         <v>5</v>
@@ -13521,7 +13531,7 @@
         <v>150020</v>
       </c>
       <c r="E168" s="12">
-        <v>15509002</v>
+        <v>1550902</v>
       </c>
       <c r="F168" s="7">
         <v>5</v>
@@ -13548,7 +13558,7 @@
         <v>150021</v>
       </c>
       <c r="E169" s="12">
-        <v>15510002</v>
+        <v>1551012</v>
       </c>
       <c r="F169" s="7">
         <v>10</v>
@@ -13575,7 +13585,7 @@
         <v>150022</v>
       </c>
       <c r="E170" s="12">
-        <v>15510004</v>
+        <v>1551014</v>
       </c>
       <c r="F170" s="7">
         <v>10</v>
@@ -13602,7 +13612,7 @@
         <v>150023</v>
       </c>
       <c r="E171" s="13">
-        <v>15510102</v>
+        <v>1551014</v>
       </c>
       <c r="F171" s="7">
         <v>10</v>
@@ -13629,7 +13639,7 @@
         <v>150024</v>
       </c>
       <c r="E172" s="13">
-        <v>15510104</v>
+        <v>1551014</v>
       </c>
       <c r="F172" s="7">
         <v>10</v>
@@ -13656,7 +13666,7 @@
         <v>150025</v>
       </c>
       <c r="E173" s="13">
-        <v>15510202</v>
+        <v>1551022</v>
       </c>
       <c r="F173" s="7">
         <v>10</v>
@@ -13683,7 +13693,7 @@
         <v>150026</v>
       </c>
       <c r="E174" s="12">
-        <v>15511002</v>
+        <v>1551102</v>
       </c>
       <c r="F174" s="7">
         <v>5</v>
@@ -13710,7 +13720,7 @@
         <v>150027</v>
       </c>
       <c r="E175" s="12">
-        <v>15511004</v>
+        <v>1551104</v>
       </c>
       <c r="F175" s="7">
         <v>5</v>
@@ -13737,7 +13747,7 @@
         <v>150028</v>
       </c>
       <c r="E176" s="12">
-        <v>15511006</v>
+        <v>1551106</v>
       </c>
       <c r="F176" s="7">
         <v>5</v>
@@ -13764,7 +13774,7 @@
         <v>150029</v>
       </c>
       <c r="E177" s="18">
-        <v>15506003</v>
+        <v>1550603</v>
       </c>
       <c r="F177" s="7">
         <v>20</v>
@@ -13791,7 +13801,7 @@
         <v>150030</v>
       </c>
       <c r="E178" s="18">
-        <v>15510011</v>
+        <v>1551014</v>
       </c>
       <c r="F178" s="7">
         <v>20</v>
@@ -13818,7 +13828,7 @@
         <v>150031</v>
       </c>
       <c r="E179" s="18">
-        <v>15510012</v>
+        <v>1551014</v>
       </c>
       <c r="F179" s="7">
         <v>20</v>
@@ -13845,7 +13855,7 @@
         <v>150032</v>
       </c>
       <c r="E180" s="18">
-        <v>15510121</v>
+        <v>1551015</v>
       </c>
       <c r="F180" s="7">
         <v>20</v>
@@ -13872,7 +13882,7 @@
         <v>150033</v>
       </c>
       <c r="E181" s="18">
-        <v>15510122</v>
+        <v>1551016</v>
       </c>
       <c r="F181" s="7">
         <v>20</v>
@@ -13899,7 +13909,7 @@
         <v>150034</v>
       </c>
       <c r="E182" s="18">
-        <v>15510211</v>
+        <v>1551023</v>
       </c>
       <c r="F182" s="7">
         <v>20</v>
@@ -13926,7 +13936,7 @@
         <v>150035</v>
       </c>
       <c r="E183" s="18">
-        <v>15511011</v>
+        <v>1551107</v>
       </c>
       <c r="F183" s="7">
         <v>20</v>
@@ -13953,7 +13963,7 @@
         <v>150036</v>
       </c>
       <c r="E184" s="18">
-        <v>15511012</v>
+        <v>1551108</v>
       </c>
       <c r="F184" s="7">
         <v>20</v>
@@ -13980,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="E185" s="18">
-        <v>15511013</v>
+        <v>1551109</v>
       </c>
       <c r="F185" s="7">
         <v>20</v>
@@ -14007,7 +14017,7 @@
         <v>210002</v>
       </c>
       <c r="E186" s="20">
-        <v>14010004</v>
+        <v>1501004</v>
       </c>
       <c r="F186" s="7">
         <v>0</v>
@@ -14036,7 +14046,7 @@
         <v>210003</v>
       </c>
       <c r="E187" s="20">
-        <v>14010008</v>
+        <v>1501008</v>
       </c>
       <c r="F187" s="7">
         <v>0</v>
@@ -14065,7 +14075,7 @@
         <v>210004</v>
       </c>
       <c r="E188" s="20">
-        <v>14010012</v>
+        <v>1501012</v>
       </c>
       <c r="F188" s="7">
         <v>0</v>
@@ -14094,7 +14104,7 @@
         <v>210005</v>
       </c>
       <c r="E189" s="20">
-        <v>14020004</v>
+        <v>1502004</v>
       </c>
       <c r="F189" s="7">
         <v>0</v>
@@ -14123,7 +14133,7 @@
         <v>210006</v>
       </c>
       <c r="E190" s="20">
-        <v>14020008</v>
+        <v>1502008</v>
       </c>
       <c r="F190" s="7">
         <v>0</v>
@@ -14152,7 +14162,7 @@
         <v>210007</v>
       </c>
       <c r="E191" s="20">
-        <v>14020012</v>
+        <v>1502012</v>
       </c>
       <c r="F191" s="7">
         <v>0</v>
@@ -14181,7 +14191,7 @@
         <v>210008</v>
       </c>
       <c r="E192" s="20">
-        <v>14030004</v>
+        <v>1503004</v>
       </c>
       <c r="F192" s="7">
         <v>0</v>
@@ -14210,7 +14220,7 @@
         <v>210009</v>
       </c>
       <c r="E193" s="20">
-        <v>14030008</v>
+        <v>1503008</v>
       </c>
       <c r="F193" s="7">
         <v>0</v>
@@ -14239,7 +14249,7 @@
         <v>210010</v>
       </c>
       <c r="E194" s="20">
-        <v>14030012</v>
+        <v>1503012</v>
       </c>
       <c r="F194" s="7">
         <v>0</v>
@@ -14268,7 +14278,7 @@
         <v>210011</v>
       </c>
       <c r="E195" s="20">
-        <v>14040004</v>
+        <v>1504004</v>
       </c>
       <c r="F195" s="7">
         <v>0</v>
@@ -14297,7 +14307,7 @@
         <v>210012</v>
       </c>
       <c r="E196" s="20">
-        <v>14040008</v>
+        <v>1504008</v>
       </c>
       <c r="F196" s="7">
         <v>0</v>
@@ -14326,7 +14336,7 @@
         <v>210013</v>
       </c>
       <c r="E197" s="20">
-        <v>14040012</v>
+        <v>1504012</v>
       </c>
       <c r="F197" s="7">
         <v>0</v>
@@ -14355,7 +14365,7 @@
         <v>210014</v>
       </c>
       <c r="E198" s="20">
-        <v>14050004</v>
+        <v>1505004</v>
       </c>
       <c r="F198" s="7">
         <v>0</v>
@@ -14384,7 +14394,7 @@
         <v>210015</v>
       </c>
       <c r="E199" s="20">
-        <v>14050008</v>
+        <v>1505008</v>
       </c>
       <c r="F199" s="7">
         <v>0</v>
@@ -14413,7 +14423,7 @@
         <v>210016</v>
       </c>
       <c r="E200" s="20">
-        <v>14050012</v>
+        <v>1505012</v>
       </c>
       <c r="F200" s="7">
         <v>0</v>
@@ -14442,7 +14452,7 @@
         <v>210017</v>
       </c>
       <c r="E201" s="20">
-        <v>14060004</v>
+        <v>1506004</v>
       </c>
       <c r="F201" s="7">
         <v>0</v>
@@ -14471,7 +14481,7 @@
         <v>210018</v>
       </c>
       <c r="E202" s="20">
-        <v>14070004</v>
+        <v>1507004</v>
       </c>
       <c r="F202" s="7">
         <v>0</v>
@@ -14500,7 +14510,7 @@
         <v>210019</v>
       </c>
       <c r="E203" s="20">
-        <v>14080003</v>
+        <v>1508003</v>
       </c>
       <c r="F203" s="7">
         <v>0</v>
@@ -14529,7 +14539,7 @@
         <v>210020</v>
       </c>
       <c r="E204" s="20">
-        <v>14090003</v>
+        <v>1509003</v>
       </c>
       <c r="F204" s="7">
         <v>0</v>
@@ -14558,7 +14568,7 @@
         <v>210021</v>
       </c>
       <c r="E205" s="20">
-        <v>14100004</v>
+        <v>1510104</v>
       </c>
       <c r="F205" s="7">
         <v>0</v>
@@ -14587,7 +14597,7 @@
         <v>210022</v>
       </c>
       <c r="E206" s="20">
-        <v>14100008</v>
+        <v>1510108</v>
       </c>
       <c r="F206" s="7">
         <v>0</v>
@@ -14616,7 +14626,7 @@
         <v>210023</v>
       </c>
       <c r="E207" s="20">
-        <v>14100104</v>
+        <v>1510122</v>
       </c>
       <c r="F207" s="7">
         <v>0</v>
@@ -14645,7 +14655,7 @@
         <v>210024</v>
       </c>
       <c r="E208" s="20">
-        <v>14100108</v>
+        <v>1510122</v>
       </c>
       <c r="F208" s="7">
         <v>0</v>
@@ -14674,7 +14684,7 @@
         <v>210025</v>
       </c>
       <c r="E209" s="20">
-        <v>14110004</v>
+        <v>1511004</v>
       </c>
       <c r="F209" s="7">
         <v>0</v>
@@ -14703,7 +14713,7 @@
         <v>210026</v>
       </c>
       <c r="E210" s="20">
-        <v>14110008</v>
+        <v>1511008</v>
       </c>
       <c r="F210" s="7">
         <v>0</v>
@@ -14732,7 +14742,7 @@
         <v>210027</v>
       </c>
       <c r="E211" s="20">
-        <v>14110012</v>
+        <v>1511012</v>
       </c>
       <c r="F211" s="7">
         <v>0</v>
@@ -14760,8 +14770,8 @@
       <c r="D212" s="7">
         <v>210028</v>
       </c>
-      <c r="E212" s="23">
-        <v>10021010</v>
+      <c r="E212" s="28">
+        <v>1021010</v>
       </c>
       <c r="F212" s="7">
         <v>0</v>
@@ -14789,8 +14799,8 @@
       <c r="D213" s="7">
         <v>210029</v>
       </c>
-      <c r="E213" s="23">
-        <v>10021010</v>
+      <c r="E213" s="28">
+        <v>1021010</v>
       </c>
       <c r="F213" s="7">
         <v>0</v>
@@ -14818,8 +14828,8 @@
       <c r="D214" s="7">
         <v>210030</v>
       </c>
-      <c r="E214" s="23">
-        <v>10021010</v>
+      <c r="E214" s="28">
+        <v>1021010</v>
       </c>
       <c r="F214" s="7">
         <v>0</v>
@@ -14847,8 +14857,8 @@
       <c r="D215" s="7">
         <v>210031</v>
       </c>
-      <c r="E215" s="23">
-        <v>10021008</v>
+      <c r="E215" s="28">
+        <v>1021008</v>
       </c>
       <c r="F215" s="7">
         <v>0</v>
@@ -14876,8 +14886,8 @@
       <c r="D216" s="7">
         <v>210032</v>
       </c>
-      <c r="E216" s="23">
-        <v>10021008</v>
+      <c r="E216" s="28">
+        <v>1021008</v>
       </c>
       <c r="F216" s="7">
         <v>0</v>
@@ -14905,8 +14915,8 @@
       <c r="D217" s="7">
         <v>210033</v>
       </c>
-      <c r="E217" s="23">
-        <v>10021008</v>
+      <c r="E217" s="28">
+        <v>1021008</v>
       </c>
       <c r="F217" s="7">
         <v>0</v>
@@ -14934,8 +14944,8 @@
       <c r="D218" s="7">
         <v>210034</v>
       </c>
-      <c r="E218" s="23">
-        <v>10021009</v>
+      <c r="E218" s="28">
+        <v>1021009</v>
       </c>
       <c r="F218" s="7">
         <v>0</v>
@@ -14963,8 +14973,8 @@
       <c r="D219" s="7">
         <v>210035</v>
       </c>
-      <c r="E219" s="23">
-        <v>10021009</v>
+      <c r="E219" s="28">
+        <v>1021009</v>
       </c>
       <c r="F219" s="7">
         <v>0</v>
@@ -14992,8 +15002,8 @@
       <c r="D220" s="7">
         <v>210036</v>
       </c>
-      <c r="E220" s="23">
-        <v>10021009</v>
+      <c r="E220" s="28">
+        <v>1021009</v>
       </c>
       <c r="F220" s="7">
         <v>0</v>
@@ -15022,7 +15032,7 @@
         <v>0</v>
       </c>
       <c r="E221" s="20">
-        <v>14100204</v>
+        <v>1510204</v>
       </c>
       <c r="F221" s="7">
         <v>0</v>
@@ -15051,7 +15061,7 @@
         <v>220002</v>
       </c>
       <c r="E222" s="20">
-        <v>15201002</v>
+        <v>1520102</v>
       </c>
       <c r="F222" s="7">
         <v>0</v>
@@ -15080,7 +15090,7 @@
         <v>220003</v>
       </c>
       <c r="E223" s="20">
-        <v>15201004</v>
+        <v>1520104</v>
       </c>
       <c r="F223" s="7">
         <v>0</v>
@@ -15109,7 +15119,7 @@
         <v>220004</v>
       </c>
       <c r="E224" s="20">
-        <v>15201006</v>
+        <v>1520106</v>
       </c>
       <c r="F224" s="7">
         <v>0</v>
@@ -15138,7 +15148,7 @@
         <v>220005</v>
       </c>
       <c r="E225" s="20">
-        <v>15202002</v>
+        <v>1520202</v>
       </c>
       <c r="F225" s="7">
         <v>0</v>
@@ -15167,7 +15177,7 @@
         <v>220006</v>
       </c>
       <c r="E226" s="20">
-        <v>15202004</v>
+        <v>1520204</v>
       </c>
       <c r="F226" s="7">
         <v>0</v>
@@ -15196,7 +15206,7 @@
         <v>220007</v>
       </c>
       <c r="E227" s="20">
-        <v>15202006</v>
+        <v>1520206</v>
       </c>
       <c r="F227" s="7">
         <v>0</v>
@@ -15225,7 +15235,7 @@
         <v>220008</v>
       </c>
       <c r="E228" s="20">
-        <v>15203002</v>
+        <v>1520302</v>
       </c>
       <c r="F228" s="7">
         <v>0</v>
@@ -15254,7 +15264,7 @@
         <v>220009</v>
       </c>
       <c r="E229" s="20">
-        <v>15203004</v>
+        <v>1520304</v>
       </c>
       <c r="F229" s="7">
         <v>0</v>
@@ -15283,7 +15293,7 @@
         <v>220010</v>
       </c>
       <c r="E230" s="20">
-        <v>15203006</v>
+        <v>1520306</v>
       </c>
       <c r="F230" s="7">
         <v>0</v>
@@ -15312,7 +15322,7 @@
         <v>220011</v>
       </c>
       <c r="E231" s="20">
-        <v>15204002</v>
+        <v>1520402</v>
       </c>
       <c r="F231" s="7">
         <v>0</v>
@@ -15341,7 +15351,7 @@
         <v>220012</v>
       </c>
       <c r="E232" s="20">
-        <v>15204004</v>
+        <v>1520404</v>
       </c>
       <c r="F232" s="7">
         <v>0</v>
@@ -15370,7 +15380,7 @@
         <v>220013</v>
       </c>
       <c r="E233" s="20">
-        <v>15204006</v>
+        <v>1520406</v>
       </c>
       <c r="F233" s="7">
         <v>0</v>
@@ -15399,7 +15409,7 @@
         <v>220014</v>
       </c>
       <c r="E234" s="20">
-        <v>15205002</v>
+        <v>1520502</v>
       </c>
       <c r="F234" s="7">
         <v>0</v>
@@ -15428,7 +15438,7 @@
         <v>220015</v>
       </c>
       <c r="E235" s="20">
-        <v>15205004</v>
+        <v>1520504</v>
       </c>
       <c r="F235" s="7">
         <v>0</v>
@@ -15457,7 +15467,7 @@
         <v>220016</v>
       </c>
       <c r="E236" s="20">
-        <v>15205006</v>
+        <v>1520506</v>
       </c>
       <c r="F236" s="7">
         <v>0</v>
@@ -15486,7 +15496,7 @@
         <v>220017</v>
       </c>
       <c r="E237" s="20">
-        <v>15206002</v>
+        <v>1520602</v>
       </c>
       <c r="F237" s="7">
         <v>0</v>
@@ -15515,7 +15525,7 @@
         <v>220018</v>
       </c>
       <c r="E238" s="20">
-        <v>15207002</v>
+        <v>1520702</v>
       </c>
       <c r="F238" s="7">
         <v>0</v>
@@ -15544,7 +15554,7 @@
         <v>220019</v>
       </c>
       <c r="E239" s="20">
-        <v>15208002</v>
+        <v>1520802</v>
       </c>
       <c r="F239" s="7">
         <v>0</v>
@@ -15573,7 +15583,7 @@
         <v>220020</v>
       </c>
       <c r="E240" s="20">
-        <v>15209002</v>
+        <v>1520902</v>
       </c>
       <c r="F240" s="7">
         <v>0</v>
@@ -15602,7 +15612,7 @@
         <v>220021</v>
       </c>
       <c r="E241" s="20">
-        <v>15210002</v>
+        <v>1521012</v>
       </c>
       <c r="F241" s="7">
         <v>0</v>
@@ -15631,7 +15641,7 @@
         <v>220022</v>
       </c>
       <c r="E242" s="20">
-        <v>15210004</v>
+        <v>1521014</v>
       </c>
       <c r="F242" s="7">
         <v>0</v>
@@ -15660,7 +15670,7 @@
         <v>220023</v>
       </c>
       <c r="E243" s="20">
-        <v>15210102</v>
+        <v>1521014</v>
       </c>
       <c r="F243" s="7">
         <v>0</v>
@@ -15689,7 +15699,7 @@
         <v>220024</v>
       </c>
       <c r="E244" s="20">
-        <v>15210104</v>
+        <v>1521014</v>
       </c>
       <c r="F244" s="7">
         <v>0</v>
@@ -15718,7 +15728,7 @@
         <v>220025</v>
       </c>
       <c r="E245" s="20">
-        <v>15211002</v>
+        <v>1521102</v>
       </c>
       <c r="F245" s="7">
         <v>0</v>
@@ -15747,7 +15757,7 @@
         <v>220026</v>
       </c>
       <c r="E246" s="20">
-        <v>15211004</v>
+        <v>1521104</v>
       </c>
       <c r="F246" s="7">
         <v>0</v>
@@ -15776,7 +15786,7 @@
         <v>220027</v>
       </c>
       <c r="E247" s="20">
-        <v>15211006</v>
+        <v>1521106</v>
       </c>
       <c r="F247" s="7">
         <v>0</v>
@@ -15804,8 +15814,8 @@
       <c r="D248" s="7">
         <v>220028</v>
       </c>
-      <c r="E248" s="23">
-        <v>10022010</v>
+      <c r="E248" s="28">
+        <v>1022010</v>
       </c>
       <c r="F248" s="7">
         <v>0</v>
@@ -15833,8 +15843,8 @@
       <c r="D249" s="7">
         <v>220029</v>
       </c>
-      <c r="E249" s="23">
-        <v>10022010</v>
+      <c r="E249" s="28">
+        <v>1022010</v>
       </c>
       <c r="F249" s="7">
         <v>0</v>
@@ -15862,8 +15872,8 @@
       <c r="D250" s="7">
         <v>220030</v>
       </c>
-      <c r="E250" s="23">
-        <v>10022010</v>
+      <c r="E250" s="28">
+        <v>1022010</v>
       </c>
       <c r="F250" s="7">
         <v>0</v>
@@ -15891,8 +15901,8 @@
       <c r="D251" s="7">
         <v>220031</v>
       </c>
-      <c r="E251" s="23">
-        <v>10022008</v>
+      <c r="E251" s="28">
+        <v>1022008</v>
       </c>
       <c r="F251" s="7">
         <v>0</v>
@@ -15920,8 +15930,8 @@
       <c r="D252" s="7">
         <v>220032</v>
       </c>
-      <c r="E252" s="23">
-        <v>10022008</v>
+      <c r="E252" s="28">
+        <v>1022008</v>
       </c>
       <c r="F252" s="7">
         <v>0</v>
@@ -15949,8 +15959,8 @@
       <c r="D253" s="7">
         <v>220033</v>
       </c>
-      <c r="E253" s="23">
-        <v>10022008</v>
+      <c r="E253" s="28">
+        <v>1022008</v>
       </c>
       <c r="F253" s="7">
         <v>0</v>
@@ -15978,8 +15988,8 @@
       <c r="D254" s="7">
         <v>220034</v>
       </c>
-      <c r="E254" s="23">
-        <v>10022009</v>
+      <c r="E254" s="28">
+        <v>1022009</v>
       </c>
       <c r="F254" s="7">
         <v>0</v>
@@ -16007,8 +16017,8 @@
       <c r="D255" s="7">
         <v>220035</v>
       </c>
-      <c r="E255" s="23">
-        <v>10022009</v>
+      <c r="E255" s="28">
+        <v>1022009</v>
       </c>
       <c r="F255" s="7">
         <v>0</v>
@@ -16036,8 +16046,8 @@
       <c r="D256" s="7">
         <v>220036</v>
       </c>
-      <c r="E256" s="23">
-        <v>10022009</v>
+      <c r="E256" s="28">
+        <v>1022009</v>
       </c>
       <c r="F256" s="7">
         <v>0</v>
@@ -16066,7 +16076,7 @@
         <v>0</v>
       </c>
       <c r="E257" s="20">
-        <v>15210202</v>
+        <v>1521022</v>
       </c>
       <c r="F257" s="7">
         <v>0</v>
@@ -16095,7 +16105,7 @@
         <v>230002</v>
       </c>
       <c r="E258" s="20">
-        <v>15301002</v>
+        <v>1530102</v>
       </c>
       <c r="F258" s="7">
         <v>0</v>
@@ -16124,7 +16134,7 @@
         <v>230003</v>
       </c>
       <c r="E259" s="20">
-        <v>15301004</v>
+        <v>1530104</v>
       </c>
       <c r="F259" s="7">
         <v>0</v>
@@ -16153,7 +16163,7 @@
         <v>230004</v>
       </c>
       <c r="E260" s="20">
-        <v>15301006</v>
+        <v>1530106</v>
       </c>
       <c r="F260" s="7">
         <v>0</v>
@@ -16182,7 +16192,7 @@
         <v>230005</v>
       </c>
       <c r="E261" s="20">
-        <v>15302002</v>
+        <v>1530202</v>
       </c>
       <c r="F261" s="7">
         <v>0</v>
@@ -16211,7 +16221,7 @@
         <v>230006</v>
       </c>
       <c r="E262" s="20">
-        <v>15302004</v>
+        <v>1530204</v>
       </c>
       <c r="F262" s="7">
         <v>0</v>
@@ -16240,7 +16250,7 @@
         <v>230007</v>
       </c>
       <c r="E263" s="20">
-        <v>15302006</v>
+        <v>1530206</v>
       </c>
       <c r="F263" s="7">
         <v>0</v>
@@ -16269,7 +16279,7 @@
         <v>230008</v>
       </c>
       <c r="E264" s="20">
-        <v>15303002</v>
+        <v>1530302</v>
       </c>
       <c r="F264" s="7">
         <v>0</v>
@@ -16298,7 +16308,7 @@
         <v>230009</v>
       </c>
       <c r="E265" s="20">
-        <v>15303004</v>
+        <v>1530304</v>
       </c>
       <c r="F265" s="7">
         <v>0</v>
@@ -16327,7 +16337,7 @@
         <v>230010</v>
       </c>
       <c r="E266" s="20">
-        <v>15303006</v>
+        <v>1530306</v>
       </c>
       <c r="F266" s="7">
         <v>0</v>
@@ -16356,7 +16366,7 @@
         <v>230011</v>
       </c>
       <c r="E267" s="20">
-        <v>15304002</v>
+        <v>1530402</v>
       </c>
       <c r="F267" s="7">
         <v>0</v>
@@ -16385,7 +16395,7 @@
         <v>230012</v>
       </c>
       <c r="E268" s="20">
-        <v>15304004</v>
+        <v>1530404</v>
       </c>
       <c r="F268" s="7">
         <v>0</v>
@@ -16414,7 +16424,7 @@
         <v>230013</v>
       </c>
       <c r="E269" s="20">
-        <v>15304006</v>
+        <v>1530406</v>
       </c>
       <c r="F269" s="7">
         <v>0</v>
@@ -16443,7 +16453,7 @@
         <v>230014</v>
       </c>
       <c r="E270" s="20">
-        <v>15305002</v>
+        <v>1530502</v>
       </c>
       <c r="F270" s="7">
         <v>0</v>
@@ -16472,7 +16482,7 @@
         <v>230015</v>
       </c>
       <c r="E271" s="20">
-        <v>15305004</v>
+        <v>1530504</v>
       </c>
       <c r="F271" s="7">
         <v>0</v>
@@ -16501,7 +16511,7 @@
         <v>230016</v>
       </c>
       <c r="E272" s="20">
-        <v>15305006</v>
+        <v>1530506</v>
       </c>
       <c r="F272" s="7">
         <v>0</v>
@@ -16530,7 +16540,7 @@
         <v>230017</v>
       </c>
       <c r="E273" s="20">
-        <v>15306002</v>
+        <v>1530602</v>
       </c>
       <c r="F273" s="7">
         <v>0</v>
@@ -16559,7 +16569,7 @@
         <v>230018</v>
       </c>
       <c r="E274" s="20">
-        <v>15307002</v>
+        <v>1530702</v>
       </c>
       <c r="F274" s="7">
         <v>0</v>
@@ -16588,7 +16598,7 @@
         <v>230019</v>
       </c>
       <c r="E275" s="20">
-        <v>15308002</v>
+        <v>1530802</v>
       </c>
       <c r="F275" s="7">
         <v>0</v>
@@ -16617,7 +16627,7 @@
         <v>230020</v>
       </c>
       <c r="E276" s="20">
-        <v>15309002</v>
+        <v>1530902</v>
       </c>
       <c r="F276" s="7">
         <v>0</v>
@@ -16646,7 +16656,7 @@
         <v>230021</v>
       </c>
       <c r="E277" s="20">
-        <v>15310002</v>
+        <v>1531002</v>
       </c>
       <c r="F277" s="7">
         <v>0</v>
@@ -16675,7 +16685,7 @@
         <v>230022</v>
       </c>
       <c r="E278" s="20">
-        <v>15310004</v>
+        <v>1531004</v>
       </c>
       <c r="F278" s="7">
         <v>0</v>
@@ -16704,7 +16714,7 @@
         <v>230023</v>
       </c>
       <c r="E279" s="20">
-        <v>15310102</v>
+        <v>1531014</v>
       </c>
       <c r="F279" s="7">
         <v>0</v>
@@ -16733,7 +16743,7 @@
         <v>230024</v>
       </c>
       <c r="E280" s="20">
-        <v>15310104</v>
+        <v>1531014</v>
       </c>
       <c r="F280" s="7">
         <v>0</v>
@@ -16762,7 +16772,7 @@
         <v>230025</v>
       </c>
       <c r="E281" s="20">
-        <v>15311002</v>
+        <v>1531102</v>
       </c>
       <c r="F281" s="7">
         <v>0</v>
@@ -16791,7 +16801,7 @@
         <v>230026</v>
       </c>
       <c r="E282" s="20">
-        <v>15311004</v>
+        <v>1531104</v>
       </c>
       <c r="F282" s="7">
         <v>0</v>
@@ -16820,7 +16830,7 @@
         <v>230027</v>
       </c>
       <c r="E283" s="20">
-        <v>15311006</v>
+        <v>1531106</v>
       </c>
       <c r="F283" s="7">
         <v>0</v>
@@ -16848,8 +16858,8 @@
       <c r="D284" s="7">
         <v>230028</v>
       </c>
-      <c r="E284" s="23">
-        <v>10023010</v>
+      <c r="E284" s="28">
+        <v>1023010</v>
       </c>
       <c r="F284" s="7">
         <v>0</v>
@@ -16877,8 +16887,8 @@
       <c r="D285" s="7">
         <v>230029</v>
       </c>
-      <c r="E285" s="23">
-        <v>10023010</v>
+      <c r="E285" s="28">
+        <v>1023010</v>
       </c>
       <c r="F285" s="7">
         <v>0</v>
@@ -16906,8 +16916,8 @@
       <c r="D286" s="7">
         <v>230030</v>
       </c>
-      <c r="E286" s="23">
-        <v>10023010</v>
+      <c r="E286" s="28">
+        <v>1023010</v>
       </c>
       <c r="F286" s="7">
         <v>0</v>
@@ -16935,8 +16945,8 @@
       <c r="D287" s="7">
         <v>230031</v>
       </c>
-      <c r="E287" s="23">
-        <v>10023008</v>
+      <c r="E287" s="28">
+        <v>1023008</v>
       </c>
       <c r="F287" s="7">
         <v>0</v>
@@ -16964,8 +16974,8 @@
       <c r="D288" s="7">
         <v>230032</v>
       </c>
-      <c r="E288" s="23">
-        <v>10023008</v>
+      <c r="E288" s="28">
+        <v>1023008</v>
       </c>
       <c r="F288" s="7">
         <v>0</v>
@@ -16993,8 +17003,8 @@
       <c r="D289" s="7">
         <v>230033</v>
       </c>
-      <c r="E289" s="23">
-        <v>10023008</v>
+      <c r="E289" s="28">
+        <v>1023008</v>
       </c>
       <c r="F289" s="7">
         <v>0</v>
@@ -17022,8 +17032,8 @@
       <c r="D290" s="7">
         <v>230034</v>
       </c>
-      <c r="E290" s="23">
-        <v>10023009</v>
+      <c r="E290" s="28">
+        <v>1023009</v>
       </c>
       <c r="F290" s="7">
         <v>0</v>
@@ -17051,8 +17061,8 @@
       <c r="D291" s="7">
         <v>230035</v>
       </c>
-      <c r="E291" s="23">
-        <v>10023009</v>
+      <c r="E291" s="28">
+        <v>1023009</v>
       </c>
       <c r="F291" s="7">
         <v>0</v>
@@ -17080,8 +17090,8 @@
       <c r="D292" s="7">
         <v>230036</v>
       </c>
-      <c r="E292" s="23">
-        <v>10023009</v>
+      <c r="E292" s="28">
+        <v>1023009</v>
       </c>
       <c r="F292" s="7">
         <v>0</v>
@@ -17110,7 +17120,7 @@
         <v>0</v>
       </c>
       <c r="E293" s="20">
-        <v>15310202</v>
+        <v>1531022</v>
       </c>
       <c r="F293" s="7">
         <v>0</v>
@@ -17139,7 +17149,7 @@
         <v>240002</v>
       </c>
       <c r="E294" s="20">
-        <v>15401002</v>
+        <v>1540102</v>
       </c>
       <c r="F294" s="7">
         <v>0</v>
@@ -17168,7 +17178,7 @@
         <v>240003</v>
       </c>
       <c r="E295" s="20">
-        <v>15401004</v>
+        <v>1540104</v>
       </c>
       <c r="F295" s="7">
         <v>0</v>
@@ -17197,7 +17207,7 @@
         <v>240004</v>
       </c>
       <c r="E296" s="20">
-        <v>15401006</v>
+        <v>1540106</v>
       </c>
       <c r="F296" s="7">
         <v>0</v>
@@ -17226,7 +17236,7 @@
         <v>240005</v>
       </c>
       <c r="E297" s="20">
-        <v>15402002</v>
+        <v>1540202</v>
       </c>
       <c r="F297" s="7">
         <v>0</v>
@@ -17255,7 +17265,7 @@
         <v>240006</v>
       </c>
       <c r="E298" s="20">
-        <v>15402004</v>
+        <v>1540204</v>
       </c>
       <c r="F298" s="7">
         <v>0</v>
@@ -17284,7 +17294,7 @@
         <v>240007</v>
       </c>
       <c r="E299" s="20">
-        <v>15402006</v>
+        <v>1540206</v>
       </c>
       <c r="F299" s="7">
         <v>0</v>
@@ -17313,7 +17323,7 @@
         <v>240008</v>
       </c>
       <c r="E300" s="20">
-        <v>15403002</v>
+        <v>1540302</v>
       </c>
       <c r="F300" s="7">
         <v>0</v>
@@ -17342,7 +17352,7 @@
         <v>240009</v>
       </c>
       <c r="E301" s="20">
-        <v>15403004</v>
+        <v>1540304</v>
       </c>
       <c r="F301" s="7">
         <v>0</v>
@@ -17371,7 +17381,7 @@
         <v>240010</v>
       </c>
       <c r="E302" s="20">
-        <v>15403006</v>
+        <v>1540306</v>
       </c>
       <c r="F302" s="7">
         <v>0</v>
@@ -17400,7 +17410,7 @@
         <v>240011</v>
       </c>
       <c r="E303" s="20">
-        <v>15404002</v>
+        <v>1540402</v>
       </c>
       <c r="F303" s="7">
         <v>0</v>
@@ -17429,7 +17439,7 @@
         <v>240012</v>
       </c>
       <c r="E304" s="20">
-        <v>15404004</v>
+        <v>1540404</v>
       </c>
       <c r="F304" s="7">
         <v>0</v>
@@ -17458,7 +17468,7 @@
         <v>240013</v>
       </c>
       <c r="E305" s="20">
-        <v>15404006</v>
+        <v>1540406</v>
       </c>
       <c r="F305" s="7">
         <v>0</v>
@@ -17487,7 +17497,7 @@
         <v>240014</v>
       </c>
       <c r="E306" s="20">
-        <v>15405002</v>
+        <v>1540502</v>
       </c>
       <c r="F306" s="7">
         <v>0</v>
@@ -17516,7 +17526,7 @@
         <v>240015</v>
       </c>
       <c r="E307" s="20">
-        <v>15405004</v>
+        <v>1540504</v>
       </c>
       <c r="F307" s="7">
         <v>0</v>
@@ -17545,7 +17555,7 @@
         <v>240016</v>
       </c>
       <c r="E308" s="20">
-        <v>15405006</v>
+        <v>1540506</v>
       </c>
       <c r="F308" s="7">
         <v>0</v>
@@ -17574,7 +17584,7 @@
         <v>240017</v>
       </c>
       <c r="E309" s="20">
-        <v>15406002</v>
+        <v>1540602</v>
       </c>
       <c r="F309" s="7">
         <v>0</v>
@@ -17603,7 +17613,7 @@
         <v>240018</v>
       </c>
       <c r="E310" s="20">
-        <v>15407002</v>
+        <v>1540702</v>
       </c>
       <c r="F310" s="7">
         <v>0</v>
@@ -17632,7 +17642,7 @@
         <v>240019</v>
       </c>
       <c r="E311" s="20">
-        <v>15408002</v>
+        <v>1540802</v>
       </c>
       <c r="F311" s="7">
         <v>0</v>
@@ -17661,7 +17671,7 @@
         <v>240020</v>
       </c>
       <c r="E312" s="20">
-        <v>15409002</v>
+        <v>1540902</v>
       </c>
       <c r="F312" s="7">
         <v>0</v>
@@ -17690,7 +17700,7 @@
         <v>240021</v>
       </c>
       <c r="E313" s="20">
-        <v>15410002</v>
+        <v>1541002</v>
       </c>
       <c r="F313" s="7">
         <v>0</v>
@@ -17719,7 +17729,7 @@
         <v>240022</v>
       </c>
       <c r="E314" s="20">
-        <v>15410004</v>
+        <v>1541014</v>
       </c>
       <c r="F314" s="7">
         <v>0</v>
@@ -17748,7 +17758,7 @@
         <v>240023</v>
       </c>
       <c r="E315" s="20">
-        <v>15410102</v>
+        <v>1541016</v>
       </c>
       <c r="F315" s="7">
         <v>0</v>
@@ -17777,7 +17787,7 @@
         <v>240024</v>
       </c>
       <c r="E316" s="20">
-        <v>15410104</v>
+        <v>1541016</v>
       </c>
       <c r="F316" s="7">
         <v>0</v>
@@ -17806,7 +17816,7 @@
         <v>240025</v>
       </c>
       <c r="E317" s="20">
-        <v>15411002</v>
+        <v>1541102</v>
       </c>
       <c r="F317" s="7">
         <v>0</v>
@@ -17835,7 +17845,7 @@
         <v>240026</v>
       </c>
       <c r="E318" s="20">
-        <v>15411004</v>
+        <v>1541104</v>
       </c>
       <c r="F318" s="7">
         <v>0</v>
@@ -17864,7 +17874,7 @@
         <v>240027</v>
       </c>
       <c r="E319" s="20">
-        <v>15411006</v>
+        <v>1541106</v>
       </c>
       <c r="F319" s="7">
         <v>0</v>
@@ -17892,8 +17902,8 @@
       <c r="D320" s="7">
         <v>240028</v>
       </c>
-      <c r="E320" s="23">
-        <v>10024010</v>
+      <c r="E320" s="28">
+        <v>1024010</v>
       </c>
       <c r="F320" s="7">
         <v>0</v>
@@ -17921,8 +17931,8 @@
       <c r="D321" s="7">
         <v>240029</v>
       </c>
-      <c r="E321" s="23">
-        <v>10024010</v>
+      <c r="E321" s="28">
+        <v>1024010</v>
       </c>
       <c r="F321" s="7">
         <v>0</v>
@@ -17950,8 +17960,8 @@
       <c r="D322" s="7">
         <v>240030</v>
       </c>
-      <c r="E322" s="23">
-        <v>10024010</v>
+      <c r="E322" s="28">
+        <v>1024010</v>
       </c>
       <c r="F322" s="7">
         <v>0</v>
@@ -17979,8 +17989,8 @@
       <c r="D323" s="7">
         <v>240031</v>
       </c>
-      <c r="E323" s="23">
-        <v>10024008</v>
+      <c r="E323" s="28">
+        <v>1024008</v>
       </c>
       <c r="F323" s="7">
         <v>0</v>
@@ -18008,8 +18018,8 @@
       <c r="D324" s="7">
         <v>240032</v>
       </c>
-      <c r="E324" s="23">
-        <v>10024008</v>
+      <c r="E324" s="28">
+        <v>1024008</v>
       </c>
       <c r="F324" s="7">
         <v>0</v>
@@ -18037,8 +18047,8 @@
       <c r="D325" s="7">
         <v>240033</v>
       </c>
-      <c r="E325" s="23">
-        <v>10024008</v>
+      <c r="E325" s="28">
+        <v>1024008</v>
       </c>
       <c r="F325" s="7">
         <v>0</v>
@@ -18066,8 +18076,8 @@
       <c r="D326" s="7">
         <v>240034</v>
       </c>
-      <c r="E326" s="23">
-        <v>10024009</v>
+      <c r="E326" s="28">
+        <v>1024009</v>
       </c>
       <c r="F326" s="7">
         <v>0</v>
@@ -18095,8 +18105,8 @@
       <c r="D327" s="7">
         <v>240035</v>
       </c>
-      <c r="E327" s="23">
-        <v>10024009</v>
+      <c r="E327" s="28">
+        <v>1024009</v>
       </c>
       <c r="F327" s="7">
         <v>0</v>
@@ -18124,8 +18134,8 @@
       <c r="D328" s="7">
         <v>240036</v>
       </c>
-      <c r="E328" s="23">
-        <v>10024009</v>
+      <c r="E328" s="28">
+        <v>1024009</v>
       </c>
       <c r="F328" s="7">
         <v>0</v>
@@ -18154,7 +18164,7 @@
         <v>0</v>
       </c>
       <c r="E329" s="20">
-        <v>15410202</v>
+        <v>1541022</v>
       </c>
       <c r="F329" s="7">
         <v>0</v>
@@ -18183,7 +18193,7 @@
         <v>250002</v>
       </c>
       <c r="E330" s="20">
-        <v>15501002</v>
+        <v>1550102</v>
       </c>
       <c r="F330" s="7">
         <v>0</v>
@@ -18212,7 +18222,7 @@
         <v>250003</v>
       </c>
       <c r="E331" s="20">
-        <v>15501004</v>
+        <v>1550104</v>
       </c>
       <c r="F331" s="7">
         <v>0</v>
@@ -18241,7 +18251,7 @@
         <v>250004</v>
       </c>
       <c r="E332" s="20">
-        <v>15501006</v>
+        <v>1550106</v>
       </c>
       <c r="F332" s="7">
         <v>0</v>
@@ -18270,7 +18280,7 @@
         <v>250005</v>
       </c>
       <c r="E333" s="20">
-        <v>15502002</v>
+        <v>1550202</v>
       </c>
       <c r="F333" s="7">
         <v>0</v>
@@ -18299,7 +18309,7 @@
         <v>250006</v>
       </c>
       <c r="E334" s="20">
-        <v>15502004</v>
+        <v>1550204</v>
       </c>
       <c r="F334" s="7">
         <v>0</v>
@@ -18328,7 +18338,7 @@
         <v>250007</v>
       </c>
       <c r="E335" s="20">
-        <v>15502006</v>
+        <v>1550206</v>
       </c>
       <c r="F335" s="7">
         <v>0</v>
@@ -18357,7 +18367,7 @@
         <v>250008</v>
       </c>
       <c r="E336" s="20">
-        <v>15503002</v>
+        <v>1550302</v>
       </c>
       <c r="F336" s="7">
         <v>0</v>
@@ -18386,7 +18396,7 @@
         <v>250009</v>
       </c>
       <c r="E337" s="20">
-        <v>15503004</v>
+        <v>1550304</v>
       </c>
       <c r="F337" s="7">
         <v>0</v>
@@ -18415,7 +18425,7 @@
         <v>250010</v>
       </c>
       <c r="E338" s="20">
-        <v>15503006</v>
+        <v>1550306</v>
       </c>
       <c r="F338" s="7">
         <v>0</v>
@@ -18444,7 +18454,7 @@
         <v>250011</v>
       </c>
       <c r="E339" s="20">
-        <v>15504002</v>
+        <v>1550402</v>
       </c>
       <c r="F339" s="7">
         <v>0</v>
@@ -18473,7 +18483,7 @@
         <v>250012</v>
       </c>
       <c r="E340" s="20">
-        <v>15504004</v>
+        <v>1550404</v>
       </c>
       <c r="F340" s="7">
         <v>0</v>
@@ -18502,7 +18512,7 @@
         <v>250013</v>
       </c>
       <c r="E341" s="20">
-        <v>15504006</v>
+        <v>1550406</v>
       </c>
       <c r="F341" s="7">
         <v>0</v>
@@ -18531,7 +18541,7 @@
         <v>250014</v>
       </c>
       <c r="E342" s="20">
-        <v>15505002</v>
+        <v>1550502</v>
       </c>
       <c r="F342" s="7">
         <v>0</v>
@@ -18560,7 +18570,7 @@
         <v>250015</v>
       </c>
       <c r="E343" s="20">
-        <v>15505004</v>
+        <v>1550504</v>
       </c>
       <c r="F343" s="7">
         <v>0</v>
@@ -18589,7 +18599,7 @@
         <v>250016</v>
       </c>
       <c r="E344" s="20">
-        <v>15505006</v>
+        <v>1550506</v>
       </c>
       <c r="F344" s="7">
         <v>0</v>
@@ -18618,7 +18628,7 @@
         <v>250017</v>
       </c>
       <c r="E345" s="20">
-        <v>15506002</v>
+        <v>1550602</v>
       </c>
       <c r="F345" s="7">
         <v>0</v>
@@ -18647,7 +18657,7 @@
         <v>250018</v>
       </c>
       <c r="E346" s="20">
-        <v>15507002</v>
+        <v>1550702</v>
       </c>
       <c r="F346" s="7">
         <v>0</v>
@@ -18676,7 +18686,7 @@
         <v>250019</v>
       </c>
       <c r="E347" s="20">
-        <v>15508002</v>
+        <v>1550802</v>
       </c>
       <c r="F347" s="7">
         <v>0</v>
@@ -18705,7 +18715,7 @@
         <v>250020</v>
       </c>
       <c r="E348" s="20">
-        <v>15509002</v>
+        <v>1550902</v>
       </c>
       <c r="F348" s="7">
         <v>0</v>
@@ -18734,7 +18744,7 @@
         <v>250021</v>
       </c>
       <c r="E349" s="20">
-        <v>15510002</v>
+        <v>1551012</v>
       </c>
       <c r="F349" s="7">
         <v>0</v>
@@ -18763,7 +18773,7 @@
         <v>250022</v>
       </c>
       <c r="E350" s="20">
-        <v>15510004</v>
+        <v>1551014</v>
       </c>
       <c r="F350" s="7">
         <v>0</v>
@@ -18792,7 +18802,7 @@
         <v>250023</v>
       </c>
       <c r="E351" s="20">
-        <v>15510102</v>
+        <v>1551014</v>
       </c>
       <c r="F351" s="7">
         <v>0</v>
@@ -18821,7 +18831,7 @@
         <v>250024</v>
       </c>
       <c r="E352" s="20">
-        <v>15510104</v>
+        <v>1551014</v>
       </c>
       <c r="F352" s="7">
         <v>0</v>
@@ -18850,7 +18860,7 @@
         <v>250025</v>
       </c>
       <c r="E353" s="20">
-        <v>15511002</v>
+        <v>1551102</v>
       </c>
       <c r="F353" s="7">
         <v>0</v>
@@ -18879,7 +18889,7 @@
         <v>250026</v>
       </c>
       <c r="E354" s="20">
-        <v>15511004</v>
+        <v>1551104</v>
       </c>
       <c r="F354" s="7">
         <v>0</v>
@@ -18908,7 +18918,7 @@
         <v>250027</v>
       </c>
       <c r="E355" s="20">
-        <v>15511006</v>
+        <v>1551106</v>
       </c>
       <c r="F355" s="7">
         <v>0</v>
@@ -18936,8 +18946,8 @@
       <c r="D356" s="7">
         <v>250028</v>
       </c>
-      <c r="E356" s="23">
-        <v>10025010</v>
+      <c r="E356" s="28">
+        <v>1025010</v>
       </c>
       <c r="F356" s="7">
         <v>0</v>
@@ -18965,8 +18975,8 @@
       <c r="D357" s="7">
         <v>250029</v>
       </c>
-      <c r="E357" s="23">
-        <v>10025010</v>
+      <c r="E357" s="28">
+        <v>1025010</v>
       </c>
       <c r="F357" s="7">
         <v>0</v>
@@ -18994,8 +19004,8 @@
       <c r="D358" s="7">
         <v>250030</v>
       </c>
-      <c r="E358" s="23">
-        <v>10025010</v>
+      <c r="E358" s="28">
+        <v>1025010</v>
       </c>
       <c r="F358" s="7">
         <v>0</v>
@@ -19023,8 +19033,8 @@
       <c r="D359" s="7">
         <v>250031</v>
       </c>
-      <c r="E359" s="23">
-        <v>10025008</v>
+      <c r="E359" s="28">
+        <v>1025008</v>
       </c>
       <c r="F359" s="7">
         <v>0</v>
@@ -19052,8 +19062,8 @@
       <c r="D360" s="7">
         <v>250032</v>
       </c>
-      <c r="E360" s="23">
-        <v>10025008</v>
+      <c r="E360" s="28">
+        <v>1025008</v>
       </c>
       <c r="F360" s="7">
         <v>0</v>
@@ -19081,8 +19091,8 @@
       <c r="D361" s="7">
         <v>250033</v>
       </c>
-      <c r="E361" s="23">
-        <v>10025008</v>
+      <c r="E361" s="28">
+        <v>1025008</v>
       </c>
       <c r="F361" s="7">
         <v>0</v>
@@ -19110,8 +19120,8 @@
       <c r="D362" s="7">
         <v>250034</v>
       </c>
-      <c r="E362" s="23">
-        <v>10025009</v>
+      <c r="E362" s="28">
+        <v>1025009</v>
       </c>
       <c r="F362" s="7">
         <v>0</v>
@@ -19139,8 +19149,8 @@
       <c r="D363" s="7">
         <v>250035</v>
       </c>
-      <c r="E363" s="23">
-        <v>10025009</v>
+      <c r="E363" s="28">
+        <v>1025009</v>
       </c>
       <c r="F363" s="7">
         <v>0</v>
@@ -19168,8 +19178,8 @@
       <c r="D364" s="7">
         <v>250036</v>
       </c>
-      <c r="E364" s="23">
-        <v>10025009</v>
+      <c r="E364" s="28">
+        <v>1025009</v>
       </c>
       <c r="F364" s="7">
         <v>0</v>
@@ -19198,7 +19208,7 @@
         <v>0</v>
       </c>
       <c r="E365" s="23">
-        <v>15510202</v>
+        <v>1551022</v>
       </c>
       <c r="F365" s="7">
         <v>0</v>
